--- a/1_data_source.xlsx
+++ b/1_data_source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/jz964_cornell_edu/Documents/1_MyWorks/5_cases/10_codes_for_Science/data_codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/jz964_cornell_edu/Documents/1_MyWorks/5_cases/10_codes_for_Science/data_codes/SPRUCE_carbon_fate_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB7972D-58C2-044D-B636-C8EA3AFF81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
